--- a/data/trans_orig/P24E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>15436</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10411</v>
+        <v>10884</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18526</v>
+        <v>19133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7250794377127109</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4890519371076675</v>
+        <v>0.511272418620257</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8702131222589102</v>
+        <v>0.8987439105398048</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -764,19 +764,19 @@
         <v>16338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10579</v>
+        <v>10981</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21491</v>
+        <v>21836</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4742159825402739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3070579709684941</v>
+        <v>0.3187364323278858</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6237829265163103</v>
+        <v>0.6337996534657395</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -785,19 +785,19 @@
         <v>31774</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24567</v>
+        <v>24616</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38598</v>
+        <v>39283</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5700281958813711</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4407356096384566</v>
+        <v>0.4416187938986216</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6924504705114701</v>
+        <v>0.7047481310368103</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>5853</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2763</v>
+        <v>2156</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10878</v>
+        <v>10405</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2749205622872892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.12978687774109</v>
+        <v>0.1012560894601953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5109480628923321</v>
+        <v>0.4887275813797431</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -835,19 +835,19 @@
         <v>17211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11997</v>
+        <v>11595</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22851</v>
+        <v>22716</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4995668928048936</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3482326360732171</v>
+        <v>0.3365654575813802</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6632726823982239</v>
+        <v>0.6593457802637792</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -856,19 +856,19 @@
         <v>23064</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16157</v>
+        <v>15092</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30256</v>
+        <v>29879</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4137677789760084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2898523451838311</v>
+        <v>0.2707473846869006</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.542802326706371</v>
+        <v>0.5360307789617107</v>
       </c>
     </row>
     <row r="6">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4321</v>
+        <v>4689</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02621712465483249</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1254329598690134</v>
+        <v>0.136088783214596</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4424</v>
+        <v>4411</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01620402514262046</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07937196049970066</v>
+        <v>0.07912931863487933</v>
       </c>
     </row>
     <row r="7">
@@ -1023,19 +1023,19 @@
         <v>35988</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27051</v>
+        <v>26839</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46417</v>
+        <v>46105</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3589188468768109</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2697851983256814</v>
+        <v>0.2676700525075946</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4629218384791396</v>
+        <v>0.4598139503850955</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -1044,19 +1044,19 @@
         <v>35766</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26878</v>
+        <v>26986</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44323</v>
+        <v>44502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4402178913529743</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3308234652823289</v>
+        <v>0.3321461239983315</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.545533038927417</v>
+        <v>0.5477420628613034</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>70</v>
@@ -1065,19 +1065,19 @@
         <v>71755</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>60291</v>
+        <v>60002</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>85897</v>
+        <v>85522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3953085836465355</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3321523233319857</v>
+        <v>0.330558221167826</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4732177083157815</v>
+        <v>0.4711535784238571</v>
       </c>
     </row>
     <row r="9">
@@ -1094,19 +1094,19 @@
         <v>55798</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>45454</v>
+        <v>45013</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>65518</v>
+        <v>64915</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5564806727262103</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4533182325507753</v>
+        <v>0.4489200933459948</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6534246683341817</v>
+        <v>0.647408107567879</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>37</v>
@@ -1115,19 +1115,19 @@
         <v>38684</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29339</v>
+        <v>30394</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47704</v>
+        <v>48060</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4761291414680788</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3611076574711909</v>
+        <v>0.374094834512576</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5871425466875606</v>
+        <v>0.5915349915033522</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>91</v>
@@ -1136,19 +1136,19 @@
         <v>94482</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>81174</v>
+        <v>81685</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>107615</v>
+        <v>107260</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5205150461881887</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4472016203932516</v>
+        <v>0.4500130725605342</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5928657051784958</v>
+        <v>0.5909140430823348</v>
       </c>
     </row>
     <row r="10">
@@ -1165,19 +1165,19 @@
         <v>8483</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4130</v>
+        <v>4005</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15550</v>
+        <v>16109</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08460048039697883</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04119011452428351</v>
+        <v>0.03994594295185443</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1550868216365863</v>
+        <v>0.160662697090192</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1186,19 +1186,19 @@
         <v>6797</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2854</v>
+        <v>2922</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12750</v>
+        <v>12961</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08365296717894689</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03512155228709629</v>
+        <v>0.0359626903384084</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.156930517807174</v>
+        <v>0.1595234147151842</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1207,19 +1207,19 @@
         <v>15279</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9106</v>
+        <v>8877</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24238</v>
+        <v>24488</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08417637016527585</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05016772808148284</v>
+        <v>0.04890303748245359</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1335308498023053</v>
+        <v>0.1349067396364126</v>
       </c>
     </row>
     <row r="11">
@@ -1311,19 +1311,19 @@
         <v>25519</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17912</v>
+        <v>16799</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>36046</v>
+        <v>35614</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2496087949791641</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1752085378095465</v>
+        <v>0.1643201742290178</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3525794899469832</v>
+        <v>0.3483498192515464</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -1332,19 +1332,19 @@
         <v>32864</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22850</v>
+        <v>24003</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>43139</v>
+        <v>44426</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2943311543479888</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.204642834478161</v>
+        <v>0.2149714908014224</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3863500262725807</v>
+        <v>0.3978731191157321</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -1353,19 +1353,19 @@
         <v>58383</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45930</v>
+        <v>45263</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72354</v>
+        <v>71263</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2729550701413654</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2147332617270103</v>
+        <v>0.211616743338902</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3382722616632007</v>
+        <v>0.3331704560777225</v>
       </c>
     </row>
     <row r="13">
@@ -1382,19 +1382,19 @@
         <v>57999</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46650</v>
+        <v>47215</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67455</v>
+        <v>68056</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.567312514904176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4562999154754179</v>
+        <v>0.4618259499445619</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6597998773893485</v>
+        <v>0.6656853169228579</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1403,19 +1403,19 @@
         <v>61519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50543</v>
+        <v>51029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72644</v>
+        <v>71840</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5509551799628439</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4526569514146015</v>
+        <v>0.4570114076498443</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6505893642995298</v>
+        <v>0.6433944077789852</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>115</v>
@@ -1424,19 +1424,19 @@
         <v>119518</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104699</v>
+        <v>105203</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132446</v>
+        <v>136157</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5587735458549081</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4894921929096804</v>
+        <v>0.4918475144286674</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6192181350636691</v>
+        <v>0.6365638355091306</v>
       </c>
     </row>
     <row r="14">
@@ -1453,19 +1453,19 @@
         <v>18717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12014</v>
+        <v>11195</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27392</v>
+        <v>27676</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1830786901166599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1175091710688757</v>
+        <v>0.1095049818818037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2679365379924026</v>
+        <v>0.2707054003521183</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1474,19 +1474,19 @@
         <v>17275</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10641</v>
+        <v>10442</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26940</v>
+        <v>26349</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1547136656891673</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09529546903513753</v>
+        <v>0.09351546875875712</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.241274124356862</v>
+        <v>0.2359796701234176</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -1495,19 +1495,19 @@
         <v>35992</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26614</v>
+        <v>25447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47909</v>
+        <v>48323</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1682713840037265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1244286471757039</v>
+        <v>0.1189693088121655</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2239835093767732</v>
+        <v>0.2259213573363948</v>
       </c>
     </row>
     <row r="15">
@@ -1599,19 +1599,19 @@
         <v>19412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12535</v>
+        <v>11648</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29679</v>
+        <v>28003</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2216718606065038</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1431372026441153</v>
+        <v>0.133013141138487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.338916908735053</v>
+        <v>0.3197713137520521</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1620,19 +1620,19 @@
         <v>16840</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10470</v>
+        <v>10345</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24473</v>
+        <v>24312</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.331058914180353</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2058274784687613</v>
+        <v>0.2033804636193789</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4811276031380056</v>
+        <v>0.4779634929550316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1641,19 +1641,19 @@
         <v>36251</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26735</v>
+        <v>26835</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48414</v>
+        <v>48123</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2618638373954261</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1931191631915808</v>
+        <v>0.1938430007904821</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3497236742279288</v>
+        <v>0.3476169260680795</v>
       </c>
     </row>
     <row r="17">
@@ -1670,19 +1670,19 @@
         <v>57838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47042</v>
+        <v>48231</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65949</v>
+        <v>67380</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6604692018652741</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.537187080764439</v>
+        <v>0.5507603467257726</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7530873607604335</v>
+        <v>0.769436204140874</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -1691,19 +1691,19 @@
         <v>20204</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13141</v>
+        <v>13657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27510</v>
+        <v>27612</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3971962156475244</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2583552707931158</v>
+        <v>0.2684974657887627</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5408338343616432</v>
+        <v>0.542831942651349</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -1712,19 +1712,19 @@
         <v>78041</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>66214</v>
+        <v>65443</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>89590</v>
+        <v>89618</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5637350692097099</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4782999437085744</v>
+        <v>0.4727297614000299</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6471567720595183</v>
+        <v>0.647357317985457</v>
       </c>
     </row>
     <row r="18">
@@ -1741,19 +1741,19 @@
         <v>10321</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5235</v>
+        <v>5831</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17291</v>
+        <v>17754</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.117858937528222</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05977836048375548</v>
+        <v>0.06658473345864334</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1974492126734262</v>
+        <v>0.2027366185552705</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -1762,19 +1762,19 @@
         <v>13823</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8573</v>
+        <v>8403</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20567</v>
+        <v>21109</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2717448701721226</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1685500828270144</v>
+        <v>0.1652029184645124</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4043299633451718</v>
+        <v>0.4149958607029706</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>23</v>
@@ -1783,19 +1783,19 @@
         <v>24143</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16497</v>
+        <v>15908</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>33888</v>
+        <v>34218</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.174401093394864</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1191659140361305</v>
+        <v>0.1149123453497591</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2447951636824389</v>
+        <v>0.2471742419642828</v>
       </c>
     </row>
     <row r="19">
@@ -1887,19 +1887,19 @@
         <v>23105</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16083</v>
+        <v>15716</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30963</v>
+        <v>30904</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3876619292257352</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2698422419467746</v>
+        <v>0.263687003620205</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5195186241789799</v>
+        <v>0.518517939517971</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1908,19 +1908,19 @@
         <v>4859</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1815</v>
+        <v>1851</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9040</v>
+        <v>8155</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4033426113901074</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1506908288865851</v>
+        <v>0.1536329437717358</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7503879568543012</v>
+        <v>0.6769606399189455</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -1929,19 +1929,19 @@
         <v>27963</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>20357</v>
+        <v>20521</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36013</v>
+        <v>36942</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3902985218132705</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2841347788938876</v>
+        <v>0.2864159507249873</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5026514525477703</v>
+        <v>0.5156144360510065</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1958,19 @@
         <v>26946</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20053</v>
+        <v>19518</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>35119</v>
+        <v>35261</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4521173327222464</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3364624890972265</v>
+        <v>0.3274819224985208</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5892486955576097</v>
+        <v>0.5916244664758389</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1979,19 +1979,19 @@
         <v>4393</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1041</v>
+        <v>1508</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8280</v>
+        <v>8241</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3646916716290383</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0864086929326101</v>
+        <v>0.1251471000495238</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6872753706454916</v>
+        <v>0.6840452058115332</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -2000,19 +2000,19 @@
         <v>31339</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>23032</v>
+        <v>23578</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>39877</v>
+        <v>40015</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4374173440621577</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3214745312784655</v>
+        <v>0.329087957523554</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5565894769463757</v>
+        <v>0.5585058976836457</v>
       </c>
     </row>
     <row r="22">
@@ -2029,19 +2029,19 @@
         <v>9549</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4645</v>
+        <v>4655</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15657</v>
+        <v>15691</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1602207380520183</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07794177361303356</v>
+        <v>0.07809624950802195</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2627087229196391</v>
+        <v>0.2632794384451483</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2050,19 +2050,19 @@
         <v>2794</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6335</v>
+        <v>6597</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2319657169808543</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06649689697067727</v>
+        <v>0.06775001291336813</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5258826994528709</v>
+        <v>0.5476062230106578</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2071,19 +2071,19 @@
         <v>12343</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6675</v>
+        <v>7163</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19132</v>
+        <v>18951</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1722841341245717</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09317319883471525</v>
+        <v>0.0999710897116818</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.267041663992895</v>
+        <v>0.2645071833966017</v>
       </c>
     </row>
     <row r="23">
@@ -2175,19 +2175,19 @@
         <v>9621</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5214</v>
+        <v>5245</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14172</v>
+        <v>14822</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3679037458671325</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1993718788346006</v>
+        <v>0.2005622858264296</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5419250573452496</v>
+        <v>0.5667682482002961</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2196,7 +2196,7 @@
         <v>2829</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>4658</v>
@@ -2205,7 +2205,7 @@
         <v>0.6073081916279873</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1952580916100461</v>
+        <v>0.1937270318803225</v>
       </c>
       <c r="P24" s="6" t="n">
         <v>1</v>
@@ -2217,19 +2217,19 @@
         <v>12451</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7551</v>
+        <v>7158</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17513</v>
+        <v>17661</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4041002952429532</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2450780903862288</v>
+        <v>0.2323270175597988</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5684071893378293</v>
+        <v>0.5732078377981946</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>10108</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5580</v>
+        <v>5608</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15188</v>
+        <v>14741</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.38649480962539</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2133634005480571</v>
+        <v>0.2144255123139713</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5807497352992056</v>
+        <v>0.5636550228349813</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2280,19 +2280,19 @@
         <v>10108</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5580</v>
+        <v>5597</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15464</v>
+        <v>15673</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3280590591294343</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1811063460516934</v>
+        <v>0.1816709727031591</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5018917133341499</v>
+        <v>0.5086911660905998</v>
       </c>
     </row>
     <row r="26">
@@ -2309,19 +2309,19 @@
         <v>6423</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2719</v>
+        <v>2766</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11735</v>
+        <v>10951</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2456014445074776</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1039745088361392</v>
+        <v>0.1057655078136556</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4487132778531575</v>
+        <v>0.4187321183842121</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3748</v>
+        <v>3756</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3926918083720127</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8047419083899539</v>
+        <v>0.8062729681196775</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2351,19 +2351,19 @@
         <v>8252</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3806</v>
+        <v>4378</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13678</v>
+        <v>13751</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2678406456276125</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1235383334579018</v>
+        <v>0.1420944786287226</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4439481400660559</v>
+        <v>0.4463170677757921</v>
       </c>
     </row>
     <row r="27">
@@ -2455,19 +2455,19 @@
         <v>4685</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1868</v>
+        <v>1123</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8474</v>
+        <v>8629</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3836321126911512</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1529415286031021</v>
+        <v>0.0919803672630858</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6938804278437658</v>
+        <v>0.7065806166661069</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -2489,19 +2489,19 @@
         <v>4685</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1112</v>
+        <v>1880</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9170</v>
+        <v>9480</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3526310772145134</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08372439611651999</v>
+        <v>0.1415385478630208</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6902316367377369</v>
+        <v>0.7135263966390495</v>
       </c>
     </row>
     <row r="29">
@@ -2518,19 +2518,19 @@
         <v>3808</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1012</v>
+        <v>882</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7311</v>
+        <v>7656</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3118040693501492</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08284929691082125</v>
+        <v>0.07224489420080452</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5986474509565299</v>
+        <v>0.6269534768585824</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2552,19 +2552,19 @@
         <v>4881</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1259</v>
+        <v>1912</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8441</v>
+        <v>8339</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3674166881981695</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09479141766725248</v>
+        <v>0.1439369571656302</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6353564803140987</v>
+        <v>0.6276571555353857</v>
       </c>
     </row>
     <row r="30">
@@ -2581,19 +2581,19 @@
         <v>3719</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1030</v>
+        <v>957</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7224</v>
+        <v>7890</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3045638179586996</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08437862663971793</v>
+        <v>0.07838564724915988</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5915357883053168</v>
+        <v>0.6460835808269896</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2615,19 +2615,19 @@
         <v>3719</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7383</v>
+        <v>7327</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2799522345873171</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06761987355919724</v>
+        <v>0.06878267760173884</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5556771576935415</v>
+        <v>0.551514924239128</v>
       </c>
     </row>
     <row r="31">
@@ -2719,19 +2719,19 @@
         <v>133766</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>114358</v>
+        <v>117055</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>153228</v>
+        <v>154299</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3267953291188058</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2793801995965309</v>
+        <v>0.285969536936904</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3743404287150507</v>
+        <v>0.3769575226624368</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>104</v>
@@ -2740,19 +2740,19 @@
         <v>109496</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>93765</v>
+        <v>93438</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>126556</v>
+        <v>127155</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3699174464311785</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3167721727783087</v>
+        <v>0.3156651225304464</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.427552435019493</v>
+        <v>0.4295734753210846</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>233</v>
@@ -2761,19 +2761,19 @@
         <v>243263</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>219459</v>
+        <v>215940</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>267978</v>
+        <v>268421</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3448921286804566</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3111435896595147</v>
+        <v>0.3061546972233561</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3799330488566386</v>
+        <v>0.3805612752713329</v>
       </c>
     </row>
     <row r="33">
@@ -2790,19 +2790,19 @@
         <v>218349</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>197952</v>
+        <v>198554</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>237980</v>
+        <v>238363</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5334331431278327</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4836022829528197</v>
+        <v>0.485073901592554</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5813922785524207</v>
+        <v>0.5823282495542014</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>141</v>
@@ -2811,19 +2811,19 @@
         <v>143085</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>126631</v>
+        <v>127650</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>162609</v>
+        <v>161263</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4833906273413048</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4278059427603758</v>
+        <v>0.4312474600113824</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.549350940204441</v>
+        <v>0.5448048634894723</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>352</v>
@@ -2832,19 +2832,19 @@
         <v>361434</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>336126</v>
+        <v>335616</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>388097</v>
+        <v>390486</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5124321015697527</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4765509706758362</v>
+        <v>0.4758289991410493</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5502349491889814</v>
+        <v>0.5536221714144495</v>
       </c>
     </row>
     <row r="34">
@@ -2861,19 +2861,19 @@
         <v>57212</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>44049</v>
+        <v>42870</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>73089</v>
+        <v>71848</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1397715277533616</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1076125568381665</v>
+        <v>0.1047337071628688</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1785591125203173</v>
+        <v>0.1755263075971692</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>42</v>
@@ -2882,19 +2882,19 @@
         <v>43421</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>31915</v>
+        <v>32754</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>56856</v>
+        <v>57030</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1466919262275166</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1078200847224752</v>
+        <v>0.1106534879474283</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1920801487515522</v>
+        <v>0.1926676151804067</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>99</v>
@@ -2903,19 +2903,19 @@
         <v>100634</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>84572</v>
+        <v>81974</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>119735</v>
+        <v>119573</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1426757697497907</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1199040877704737</v>
+        <v>0.1162203071023862</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1697572062908385</v>
+        <v>0.1695283327798379</v>
       </c>
     </row>
     <row r="35">
@@ -3250,19 +3250,19 @@
         <v>35348</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28042</v>
+        <v>26572</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41660</v>
+        <v>42119</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6281227345295546</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.498298675432752</v>
+        <v>0.4721800646350385</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7402826006624516</v>
+        <v>0.7484405603213135</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -3271,19 +3271,19 @@
         <v>40317</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32590</v>
+        <v>32748</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46112</v>
+        <v>47068</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6831321628117439</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5522054908791387</v>
+        <v>0.5548738820382677</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7813217641909239</v>
+        <v>0.7975150339389913</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -3292,19 +3292,19 @@
         <v>75665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64872</v>
+        <v>64866</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84703</v>
+        <v>84433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6562816854876546</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5626692560893478</v>
+        <v>0.5626095547033504</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7346735268861629</v>
+        <v>0.7323298443814883</v>
       </c>
     </row>
     <row r="5">
@@ -3321,19 +3321,19 @@
         <v>19073</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12319</v>
+        <v>12346</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26269</v>
+        <v>27609</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3389249581239353</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2189077317394002</v>
+        <v>0.2193764102508573</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.466785409786128</v>
+        <v>0.4905954301243356</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -3342,19 +3342,19 @@
         <v>15622</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9927</v>
+        <v>9750</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23234</v>
+        <v>22847</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2646991177667615</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1682067762667871</v>
+        <v>0.1652053906047869</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3936806845913737</v>
+        <v>0.3871237957670207</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -3363,19 +3363,19 @@
         <v>34695</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25554</v>
+        <v>26467</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44632</v>
+        <v>45207</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3009292569557748</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2216386938146021</v>
+        <v>0.229563999781451</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3871169943899984</v>
+        <v>0.3920980561757229</v>
       </c>
     </row>
     <row r="6">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5637</v>
+        <v>5894</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03295230734651014</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1001586307180688</v>
+        <v>0.1047259153261259</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -3413,19 +3413,19 @@
         <v>3079</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>985</v>
+        <v>961</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8760</v>
+        <v>7463</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05216871942149453</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01669432420943028</v>
+        <v>0.01628207539165548</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1484274103802602</v>
+        <v>0.1264495862573886</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -3434,19 +3434,19 @@
         <v>4933</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1933</v>
+        <v>1297</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11045</v>
+        <v>10888</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04278905755657054</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01676897125749666</v>
+        <v>0.01124720733193473</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0957943625904976</v>
+        <v>0.09443758149179805</v>
       </c>
     </row>
     <row r="7">
@@ -3538,19 +3538,19 @@
         <v>57816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46486</v>
+        <v>45895</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69560</v>
+        <v>70837</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4059348997179765</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3263815314432255</v>
+        <v>0.3222373452038505</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4883910606315442</v>
+        <v>0.497359493984496</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -3559,19 +3559,19 @@
         <v>66024</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53839</v>
+        <v>53777</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>78351</v>
+        <v>78763</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4813403300801802</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3925099911955755</v>
+        <v>0.3920524229643922</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5712077621160808</v>
+        <v>0.5742123946501662</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>117</v>
@@ -3580,19 +3580,19 @@
         <v>123840</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>107735</v>
+        <v>106581</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>141786</v>
+        <v>142582</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.442928356478875</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3853262057438706</v>
+        <v>0.381201862628158</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5071139925537422</v>
+        <v>0.5099629824951764</v>
       </c>
     </row>
     <row r="9">
@@ -3609,19 +3609,19 @@
         <v>69310</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>57699</v>
+        <v>56578</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>81779</v>
+        <v>81438</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4866358191440414</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4051093646764652</v>
+        <v>0.3972426788746289</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5741789019835833</v>
+        <v>0.5717852767584367</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>56</v>
@@ -3630,19 +3630,19 @@
         <v>59489</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>46944</v>
+        <v>47504</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>71450</v>
+        <v>72747</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.43369759903681</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3422378324692894</v>
+        <v>0.3463241137084348</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5208968802307449</v>
+        <v>0.5303516642359003</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>121</v>
@@ -3651,19 +3651,19 @@
         <v>128799</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>111778</v>
+        <v>111934</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>146302</v>
+        <v>146945</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4606646424379482</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3997879250550665</v>
+        <v>0.4003471919034485</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5232695304025581</v>
+        <v>0.5255672543950544</v>
       </c>
     </row>
     <row r="10">
@@ -3680,19 +3680,19 @@
         <v>15301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8211</v>
+        <v>7563</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25316</v>
+        <v>25455</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1074292811379821</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05764814905648513</v>
+        <v>0.0531014982596472</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1777489161727828</v>
+        <v>0.1787197524076359</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3701,19 +3701,19 @@
         <v>11654</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6429</v>
+        <v>6043</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20453</v>
+        <v>20199</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08496207088300975</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04686782240743727</v>
+        <v>0.04405455857444672</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1491096021236019</v>
+        <v>0.1472549761477709</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -3722,19 +3722,19 @@
         <v>26955</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16538</v>
+        <v>16521</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38405</v>
+        <v>39078</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09640700108317672</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05914980489799361</v>
+        <v>0.05908972952481719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.137360276191681</v>
+        <v>0.1397676204262738</v>
       </c>
     </row>
     <row r="11">
@@ -3826,19 +3826,19 @@
         <v>54622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42350</v>
+        <v>41525</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>66099</v>
+        <v>66313</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3541871249908903</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2746063523073267</v>
+        <v>0.2692624204956721</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4286048578668175</v>
+        <v>0.4299936358244529</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -3847,19 +3847,19 @@
         <v>52261</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40416</v>
+        <v>40916</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63624</v>
+        <v>64743</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4132468346822231</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3195867933191895</v>
+        <v>0.3235378012680101</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5030980181260513</v>
+        <v>0.5119452657586806</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>99</v>
@@ -3868,19 +3868,19 @@
         <v>106884</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>90949</v>
+        <v>90168</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123853</v>
+        <v>125023</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3807969152094172</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3240267025197321</v>
+        <v>0.3212425894441031</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4412548817226009</v>
+        <v>0.4454228827876248</v>
       </c>
     </row>
     <row r="13">
@@ -3897,19 +3897,19 @@
         <v>82817</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70205</v>
+        <v>70229</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96350</v>
+        <v>95919</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5370093949082503</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4552307697322658</v>
+        <v>0.4553848877595201</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6247617026474718</v>
+        <v>0.6219638190513356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -3918,19 +3918,19 @@
         <v>53430</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42013</v>
+        <v>42231</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64465</v>
+        <v>65007</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4224904991652441</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3322129027497662</v>
+        <v>0.3339335187167574</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5097528894458786</v>
+        <v>0.5140367494789209</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -3939,19 +3939,19 @@
         <v>136247</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119465</v>
+        <v>118556</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>152492</v>
+        <v>154217</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.485412057100375</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4256195641409635</v>
+        <v>0.4223820573640076</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5432888500975472</v>
+        <v>0.549432490822955</v>
       </c>
     </row>
     <row r="14">
@@ -3968,19 +3968,19 @@
         <v>16780</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10373</v>
+        <v>10323</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26033</v>
+        <v>26800</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1088034801008594</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06726139275730438</v>
+        <v>0.06693953740220958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1688027859781094</v>
+        <v>0.1737757284288977</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -3989,19 +3989,19 @@
         <v>20773</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13873</v>
+        <v>13027</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30206</v>
+        <v>30428</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1642626661525328</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1097008766582151</v>
+        <v>0.1030111519116893</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2388521851493508</v>
+        <v>0.2406055026548793</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -4010,19 +4010,19 @@
         <v>37553</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27346</v>
+        <v>26852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49890</v>
+        <v>49627</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1337910276902079</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09742770229453468</v>
+        <v>0.09566795059310884</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1777429245131552</v>
+        <v>0.1768084687294484</v>
       </c>
     </row>
     <row r="15">
@@ -4114,19 +4114,19 @@
         <v>45948</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35862</v>
+        <v>35186</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60573</v>
+        <v>59613</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3149419518306715</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2458051739326485</v>
+        <v>0.2411751035104291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4151840436652166</v>
+        <v>0.4086032364755066</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -4135,19 +4135,19 @@
         <v>45289</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34698</v>
+        <v>33662</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57514</v>
+        <v>58040</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3440967678958031</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2636323729302539</v>
+        <v>0.2557568779336269</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4369819495315065</v>
+        <v>0.4409768137325054</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -4156,19 +4156,19 @@
         <v>91237</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>74780</v>
+        <v>74651</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109273</v>
+        <v>108220</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3287693228661198</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2694653564228991</v>
+        <v>0.2690002054262916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3937598603461821</v>
+        <v>0.3899652206706573</v>
       </c>
     </row>
     <row r="17">
@@ -4185,19 +4185,19 @@
         <v>76641</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62259</v>
+        <v>63259</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88649</v>
+        <v>89726</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5253157375783092</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4267374180844121</v>
+        <v>0.4335893879296022</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6076223906957529</v>
+        <v>0.6150026086400101</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -4206,19 +4206,19 @@
         <v>62418</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50135</v>
+        <v>49493</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75087</v>
+        <v>74632</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4742447462349989</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3809202239475412</v>
+        <v>0.3760398128324007</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5705035549422288</v>
+        <v>0.567039790441217</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>117</v>
@@ -4227,19 +4227,19 @@
         <v>139059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>119436</v>
+        <v>121175</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>156680</v>
+        <v>156713</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.501094094578589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4303814622800584</v>
+        <v>0.4366504624318163</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5645899973693024</v>
+        <v>0.5647108278983862</v>
       </c>
     </row>
     <row r="18">
@@ -4256,19 +4256,19 @@
         <v>23306</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14989</v>
+        <v>14434</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34864</v>
+        <v>34531</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1597423105910194</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1027354225742088</v>
+        <v>0.09893259788767587</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2389691621568018</v>
+        <v>0.2366847965728135</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -4277,19 +4277,19 @@
         <v>23909</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14964</v>
+        <v>15441</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>34730</v>
+        <v>35347</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.181658485869198</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1136934134909828</v>
+        <v>0.1173166998041544</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2638734182881303</v>
+        <v>0.2685622172775219</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>39</v>
@@ -4298,19 +4298,19 @@
         <v>47215</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>35466</v>
+        <v>33163</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>61612</v>
+        <v>60990</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1701365825552912</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1278020609605689</v>
+        <v>0.1195028648465686</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2220159016692365</v>
+        <v>0.2197743189609852</v>
       </c>
     </row>
     <row r="19">
@@ -4402,19 +4402,19 @@
         <v>33673</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24494</v>
+        <v>25201</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42532</v>
+        <v>42988</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.403316886461109</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2933696080659528</v>
+        <v>0.3018467951813534</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5094156806149417</v>
+        <v>0.5148801310754745</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -4423,19 +4423,19 @@
         <v>14858</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9561</v>
+        <v>9956</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19899</v>
+        <v>20164</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5669846348026837</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.364848784439648</v>
+        <v>0.3799064938809078</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7593245271196043</v>
+        <v>0.7694293759222701</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>45</v>
@@ -4444,19 +4444,19 @@
         <v>48532</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38466</v>
+        <v>37529</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59368</v>
+        <v>58250</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4424164184092683</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3506538301407849</v>
+        <v>0.3421194085566984</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5412004125022039</v>
+        <v>0.5310045538400427</v>
       </c>
     </row>
     <row r="21">
@@ -4473,19 +4473,19 @@
         <v>39562</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30472</v>
+        <v>30573</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>49364</v>
+        <v>48540</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4738516249032014</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3649716879992106</v>
+        <v>0.3661879328252297</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5912534142576789</v>
+        <v>0.5813744678124986</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -4494,19 +4494,19 @@
         <v>8364</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3974</v>
+        <v>4127</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13936</v>
+        <v>13873</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3191789668585291</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1516625614522685</v>
+        <v>0.1574863825658778</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5317891200073493</v>
+        <v>0.5293789552680727</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>45</v>
@@ -4515,19 +4515,19 @@
         <v>47927</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>37172</v>
+        <v>38637</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>58805</v>
+        <v>60369</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4369009819328895</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3388611770367089</v>
+        <v>0.3522162506423909</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5360656808325757</v>
+        <v>0.550326638713374</v>
       </c>
     </row>
     <row r="22">
@@ -4544,19 +4544,19 @@
         <v>10255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5119</v>
+        <v>5140</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17567</v>
+        <v>17822</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1228314886356896</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06130687148432167</v>
+        <v>0.06156828775797953</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2104050750042182</v>
+        <v>0.2134615700904473</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -4565,19 +4565,19 @@
         <v>2983</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>503</v>
+        <v>926</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7120</v>
+        <v>7140</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1138363983387872</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01919997603253291</v>
+        <v>0.03532236102281861</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2716819691121092</v>
+        <v>0.2724718360560033</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -4586,19 +4586,19 @@
         <v>13239</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8016</v>
+        <v>7167</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21687</v>
+        <v>20574</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1206825996578422</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07307451602015846</v>
+        <v>0.06533904907195182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1976967793516048</v>
+        <v>0.1875495734306409</v>
       </c>
     </row>
     <row r="23">
@@ -4690,19 +4690,19 @@
         <v>11668</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6290</v>
+        <v>6284</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17462</v>
+        <v>17092</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4709864004555817</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2538862183327763</v>
+        <v>0.2536541802751384</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7049003951365876</v>
+        <v>0.6899474137411707</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -4711,19 +4711,19 @@
         <v>3800</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>879</v>
+        <v>798</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6449</v>
+        <v>6447</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5061734400479756</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1170814065656784</v>
+        <v>0.1063327384488041</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8590745271854892</v>
+        <v>0.8587777844057343</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -4732,19 +4732,19 @@
         <v>15468</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9588</v>
+        <v>9458</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21807</v>
+        <v>21957</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4791694629817323</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2970105943270491</v>
+        <v>0.2930054379162024</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6755514762726015</v>
+        <v>0.6802030771172207</v>
       </c>
     </row>
     <row r="25">
@@ -4761,19 +4761,19 @@
         <v>7110</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2777</v>
+        <v>2931</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13400</v>
+        <v>12710</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2870082297721718</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1120986832299409</v>
+        <v>0.1183014601541545</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5409190832940434</v>
+        <v>0.5130784429974844</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6080</v>
+        <v>5979</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3662987547636739</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8098892177816457</v>
+        <v>0.7965135361822909</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -4803,19 +4803,19 @@
         <v>9860</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4909</v>
+        <v>4732</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16521</v>
+        <v>16044</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3054479544905032</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1520640466714507</v>
+        <v>0.1465850777365162</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5118058596535309</v>
+        <v>0.4970300787834304</v>
       </c>
     </row>
     <row r="26">
@@ -4832,19 +4832,19 @@
         <v>5995</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2022</v>
+        <v>1988</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12924</v>
+        <v>12699</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2420053697722466</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08162263814216109</v>
+        <v>0.08026837991274065</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5216768786736442</v>
+        <v>0.5126177350633746</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1275278051883506</v>
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5775614456439888</v>
+        <v>0.5774196816946536</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -4874,19 +4874,19 @@
         <v>6953</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2921</v>
+        <v>2263</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14148</v>
+        <v>13849</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2153825825277645</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09048749183671269</v>
+        <v>0.07010985592069857</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4382811549074985</v>
+        <v>0.4290362873265084</v>
       </c>
     </row>
     <row r="27">
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4671</v>
+        <v>4435</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07903417822940664</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3540891605323288</v>
+        <v>0.3361656359474645</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4996</v>
+        <v>4469</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07344033971698494</v>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3519135170226396</v>
+        <v>0.3148200250342038</v>
       </c>
     </row>
     <row r="29">
@@ -5041,19 +5041,19 @@
         <v>4306</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1126</v>
+        <v>995</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8470</v>
+        <v>8414</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3263977898646598</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08534624447691473</v>
+        <v>0.07543843438026658</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6420345937926559</v>
+        <v>0.6377764460901683</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5075,19 +5075,19 @@
         <v>4306</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1067</v>
+        <v>1051</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8625</v>
+        <v>8352</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.303296182835678</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07518897983218809</v>
+        <v>0.07405235399622248</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6075214661056756</v>
+        <v>0.5882714100333069</v>
       </c>
     </row>
     <row r="30">
@@ -5104,19 +5104,19 @@
         <v>7844</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3714</v>
+        <v>3670</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11270</v>
+        <v>11359</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5945680319059335</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2815307539099175</v>
+        <v>0.2781654548138466</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8542802033104556</v>
+        <v>0.8610522933478477</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -5138,19 +5138,19 @@
         <v>8848</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4670</v>
+        <v>4768</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12381</v>
+        <v>12345</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.623263477447337</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3289515971843891</v>
+        <v>0.3358419335530087</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8720686802734569</v>
+        <v>0.8695490851501474</v>
       </c>
     </row>
     <row r="31">
@@ -5242,19 +5242,19 @@
         <v>240119</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>215106</v>
+        <v>214245</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>265324</v>
+        <v>267626</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.387117933726461</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3467927825103572</v>
+        <v>0.3454050790594896</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4277534387790796</v>
+        <v>0.4314645460506028</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>206</v>
@@ -5263,19 +5263,19 @@
         <v>222549</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>200998</v>
+        <v>201051</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>246460</v>
+        <v>245058</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4551261216259911</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.411052678150856</v>
+        <v>0.4111610251533833</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5040247500504481</v>
+        <v>0.5011592748814391</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>433</v>
@@ -5284,19 +5284,19 @@
         <v>462668</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>428431</v>
+        <v>429292</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>497594</v>
+        <v>496054</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4170973709992102</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3862327100154795</v>
+        <v>0.3870085012873993</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.448583446896749</v>
+        <v>0.4471950505643372</v>
       </c>
     </row>
     <row r="33">
@@ -5313,19 +5313,19 @@
         <v>298820</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>273763</v>
+        <v>273044</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>325978</v>
+        <v>324755</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4817550852355855</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4413587534125671</v>
+        <v>0.4401989963695129</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5255402342807131</v>
+        <v>0.5235678336788262</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>184</v>
@@ -5334,19 +5334,19 @@
         <v>202073</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>178243</v>
+        <v>180045</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>223504</v>
+        <v>223875</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4132522181000173</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3645184995950032</v>
+        <v>0.3682036463983131</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4570802721936963</v>
+        <v>0.4578378688666523</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>457</v>
@@ -5355,19 +5355,19 @@
         <v>500893</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>469824</v>
+        <v>466765</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>536079</v>
+        <v>536459</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4515575829682382</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4235484307030039</v>
+        <v>0.420790766099661</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4832781757849252</v>
+        <v>0.4836209523534279</v>
       </c>
     </row>
     <row r="34">
@@ -5384,19 +5384,19 @@
         <v>81335</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>64234</v>
+        <v>65487</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>101527</v>
+        <v>102590</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1311269810379536</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1035577990356174</v>
+        <v>0.1055775134454515</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1636816004963403</v>
+        <v>0.1653950779251201</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>59</v>
@@ -5405,19 +5405,19 @@
         <v>64361</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>50674</v>
+        <v>47498</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>82713</v>
+        <v>79183</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1316216602739916</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1036309769762696</v>
+        <v>0.09713631261415327</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1691524556079846</v>
+        <v>0.1619346797863311</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>128</v>
@@ -5426,19 +5426,19 @@
         <v>145695</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>121817</v>
+        <v>122673</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>170893</v>
+        <v>170243</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1313450460325516</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1098188545949616</v>
+        <v>0.1105900902662017</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1540613236831399</v>
+        <v>0.1534744950713539</v>
       </c>
     </row>
     <row r="35">
@@ -5773,19 +5773,19 @@
         <v>23607</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17094</v>
+        <v>17034</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29178</v>
+        <v>29136</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6043369752050288</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4376022104784554</v>
+        <v>0.4360858217776439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7469563283686265</v>
+        <v>0.7458800582930525</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5794,19 +5794,19 @@
         <v>22123</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15792</v>
+        <v>15853</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26900</v>
+        <v>26866</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6462403362908756</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4613221282242543</v>
+        <v>0.4630977768354116</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.785793478589293</v>
+        <v>0.7847868683304932</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -5815,19 +5815,19 @@
         <v>45729</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36411</v>
+        <v>37644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53146</v>
+        <v>53606</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6239082862367761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4967743277108648</v>
+        <v>0.513594589949214</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7251039276655902</v>
+        <v>0.7313678178255748</v>
       </c>
     </row>
     <row r="5">
@@ -5844,19 +5844,19 @@
         <v>14449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9333</v>
+        <v>9212</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20831</v>
+        <v>20454</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3698879586496074</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.238919975493097</v>
+        <v>0.2358233884761033</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5332848716067398</v>
+        <v>0.5236192416710194</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -5865,19 +5865,19 @@
         <v>12110</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7333</v>
+        <v>7367</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18441</v>
+        <v>18380</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3537596637091244</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.214206521410707</v>
+        <v>0.2152131316695068</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.538677871775746</v>
+        <v>0.5369022231645881</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -5886,19 +5886,19 @@
         <v>26559</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18885</v>
+        <v>18766</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35372</v>
+        <v>34766</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3623551052337375</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2576560778579493</v>
+        <v>0.2560279571971496</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4825999198016857</v>
+        <v>0.4743255148875711</v>
       </c>
     </row>
     <row r="6">
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4176</v>
+        <v>4910</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02577506614536377</v>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.106906857648053</v>
+        <v>0.1256867288411744</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5129</v>
+        <v>5157</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01373660852948632</v>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06997614131185237</v>
+        <v>0.07035438872735361</v>
       </c>
     </row>
     <row r="7">
@@ -6053,19 +6053,19 @@
         <v>28073</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19245</v>
+        <v>19953</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36671</v>
+        <v>37922</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2915959298808141</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1998952763714872</v>
+        <v>0.2072592186904667</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.380905986788652</v>
+        <v>0.3939030002708846</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -6074,19 +6074,19 @@
         <v>31580</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23418</v>
+        <v>23404</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40137</v>
+        <v>41154</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3613412296485846</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2679493101747834</v>
+        <v>0.2677880074342304</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4592526083485901</v>
+        <v>0.4708884873789681</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>60</v>
@@ -6095,19 +6095,19 @@
         <v>59653</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47335</v>
+        <v>47058</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>72367</v>
+        <v>72861</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3247830075479817</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.257721383460338</v>
+        <v>0.2562098394083531</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.394007296123954</v>
+        <v>0.3966990247913911</v>
       </c>
     </row>
     <row r="9">
@@ -6124,19 +6124,19 @@
         <v>59307</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>49549</v>
+        <v>49639</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>68742</v>
+        <v>68601</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.616027271878859</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5146697316923088</v>
+        <v>0.5156081858283175</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7140308683772919</v>
+        <v>0.7125658459921649</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>47</v>
@@ -6145,19 +6145,19 @@
         <v>45236</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>35974</v>
+        <v>35729</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53987</v>
+        <v>54457</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5175971003935699</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4116193604669382</v>
+        <v>0.4088146980930243</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6177319265690033</v>
+        <v>0.6231094088618284</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>104</v>
@@ -6166,19 +6166,19 @@
         <v>104543</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>92032</v>
+        <v>91107</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>118158</v>
+        <v>118277</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5691910010942802</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5010775299684911</v>
+        <v>0.4960369937497977</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6433227088968014</v>
+        <v>0.6439686041173049</v>
       </c>
     </row>
     <row r="10">
@@ -6195,19 +6195,19 @@
         <v>8893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4147</v>
+        <v>3619</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16998</v>
+        <v>15621</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09237679824032693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04307649443548419</v>
+        <v>0.03759419310380793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1765606024120634</v>
+        <v>0.1622608670464903</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -6216,19 +6216,19 @@
         <v>10580</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5616</v>
+        <v>4950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17782</v>
+        <v>16325</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1210616699578456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06425947717051372</v>
+        <v>0.05663443705022451</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2034593856354069</v>
+        <v>0.1867895643912261</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -6237,19 +6237,19 @@
         <v>19474</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11841</v>
+        <v>12465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28687</v>
+        <v>29881</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1060259913577381</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06447013078880659</v>
+        <v>0.06786728393932233</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1561870285226007</v>
+        <v>0.1626896901703534</v>
       </c>
     </row>
     <row r="11">
@@ -6341,19 +6341,19 @@
         <v>29439</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20751</v>
+        <v>20616</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40502</v>
+        <v>40242</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2354670922200134</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1659765550287604</v>
+        <v>0.1648956134427509</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3239499793333767</v>
+        <v>0.3218744898345603</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -6362,19 +6362,19 @@
         <v>26196</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18236</v>
+        <v>18217</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34896</v>
+        <v>35090</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2905286676185176</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2022459207183787</v>
+        <v>0.2020425990973601</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.387022702561037</v>
+        <v>0.3891748469886053</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -6383,19 +6383,19 @@
         <v>55635</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42006</v>
+        <v>43087</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>69124</v>
+        <v>68902</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2585381352082166</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1952066793436699</v>
+        <v>0.2002263716693424</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3212228461374729</v>
+        <v>0.3201918313306792</v>
       </c>
     </row>
     <row r="13">
@@ -6412,19 +6412,19 @@
         <v>79964</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68530</v>
+        <v>67387</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90236</v>
+        <v>91736</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6395869813805053</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5481329931262294</v>
+        <v>0.5389934491803793</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7217533109115447</v>
+        <v>0.7337465617146002</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -6433,19 +6433,19 @@
         <v>45243</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36614</v>
+        <v>35234</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54528</v>
+        <v>54867</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5017835607099947</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4060797189206813</v>
+        <v>0.3907713685660029</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6047543892426389</v>
+        <v>0.6085191593255366</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -6454,19 +6454,19 @@
         <v>125207</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109518</v>
+        <v>111284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>138969</v>
+        <v>139455</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5818467402195674</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5089378745533325</v>
+        <v>0.5171433377889821</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.645801382037994</v>
+        <v>0.6480603479108418</v>
       </c>
     </row>
     <row r="14">
@@ -6483,19 +6483,19 @@
         <v>15621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9001</v>
+        <v>9316</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23918</v>
+        <v>24977</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1249459263994814</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0719934798240842</v>
+        <v>0.07451676832642781</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1913096088079045</v>
+        <v>0.1997740095260086</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -6504,19 +6504,19 @@
         <v>18726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11955</v>
+        <v>12018</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26758</v>
+        <v>26488</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2076877716714876</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1325908803335601</v>
+        <v>0.1332853321608309</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2967621889609949</v>
+        <v>0.2937779849753033</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -6525,19 +6525,19 @@
         <v>34347</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24997</v>
+        <v>24685</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45857</v>
+        <v>45879</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.159615124572216</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1161622743077347</v>
+        <v>0.1147119229183639</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2131020793610636</v>
+        <v>0.2132032581011241</v>
       </c>
     </row>
     <row r="15">
@@ -6629,19 +6629,19 @@
         <v>22954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15175</v>
+        <v>15321</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32762</v>
+        <v>32640</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1945404315131671</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1286143485611986</v>
+        <v>0.1298518684317637</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2776674875752751</v>
+        <v>0.276632783070929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -6650,19 +6650,19 @@
         <v>28864</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19381</v>
+        <v>20002</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39140</v>
+        <v>38647</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2576822539254932</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1730238761763382</v>
+        <v>0.1785703872631459</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3494230888248223</v>
+        <v>0.3450188303873432</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -6671,19 +6671,19 @@
         <v>51818</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40435</v>
+        <v>40068</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66666</v>
+        <v>65463</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2252908428737716</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1758020897451391</v>
+        <v>0.1742043120660052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2898470614281822</v>
+        <v>0.2846172281207852</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>51069</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39838</v>
+        <v>39256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63374</v>
+        <v>62023</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4328236275789528</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3376389457635042</v>
+        <v>0.3327079918077046</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5371134884533787</v>
+        <v>0.5256664805794574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -6721,19 +6721,19 @@
         <v>64333</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52133</v>
+        <v>53407</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74957</v>
+        <v>75080</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5743382520757345</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4654184846481953</v>
+        <v>0.4767950354977148</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.669185065989946</v>
+        <v>0.6702830621354807</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>106</v>
@@ -6742,19 +6742,19 @@
         <v>115402</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100990</v>
+        <v>100205</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>130748</v>
+        <v>130922</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5017420203424791</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4390833589213305</v>
+        <v>0.4356693277194961</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5684634992000419</v>
+        <v>0.5692188931453378</v>
       </c>
     </row>
     <row r="18">
@@ -6771,19 +6771,19 @@
         <v>43967</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32784</v>
+        <v>34167</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54901</v>
+        <v>55309</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3726359409078801</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2778566243033165</v>
+        <v>0.2895714783500415</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4652998382496394</v>
+        <v>0.468758945109489</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -6792,19 +6792,19 @@
         <v>18816</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11459</v>
+        <v>11340</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27998</v>
+        <v>28550</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1679794939987723</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1022996635380019</v>
+        <v>0.1012421113867779</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2499503962494208</v>
+        <v>0.2548801745309868</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>56</v>
@@ -6813,19 +6813,19 @@
         <v>62783</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48959</v>
+        <v>48579</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>77824</v>
+        <v>77281</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2729671367837493</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2128629860970616</v>
+        <v>0.2112109177033886</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3383612387298482</v>
+        <v>0.336002005945333</v>
       </c>
     </row>
     <row r="19">
@@ -6917,19 +6917,19 @@
         <v>16567</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9560</v>
+        <v>9831</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24418</v>
+        <v>25104</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2062944751673854</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1190456896625253</v>
+        <v>0.122414475319895</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3040557252530974</v>
+        <v>0.3125970464271953</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -6938,19 +6938,19 @@
         <v>9789</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4637</v>
+        <v>5099</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16843</v>
+        <v>17947</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.177958361827758</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08429786528977136</v>
+        <v>0.09268750926192258</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3061911051614422</v>
+        <v>0.3262559190705286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -6959,19 +6959,19 @@
         <v>26356</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17706</v>
+        <v>16934</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37227</v>
+        <v>37761</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1947752301310047</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1308486094689726</v>
+        <v>0.1251413937914578</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2751113962314678</v>
+        <v>0.2790608106074697</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>46400</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37471</v>
+        <v>37199</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>55525</v>
+        <v>54997</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5777827301646092</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4665971606710537</v>
+        <v>0.4632150281764397</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6914040560936794</v>
+        <v>0.684839902494662</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -7009,19 +7009,19 @@
         <v>33019</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25231</v>
+        <v>24938</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40785</v>
+        <v>40452</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6002450360284407</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4586710915695874</v>
+        <v>0.4533372545556874</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7414273981306801</v>
+        <v>0.7353767494023363</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>69</v>
@@ -7030,19 +7030,19 @@
         <v>79419</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>67126</v>
+        <v>66921</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>90628</v>
+        <v>91793</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5869141449859127</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.496066594664234</v>
+        <v>0.4945548120133275</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6697519139972825</v>
+        <v>0.678363840092768</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>17340</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10624</v>
+        <v>10645</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26249</v>
+        <v>25673</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2159227946680053</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1322862122148981</v>
+        <v>0.1325594418038286</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3268605286035948</v>
+        <v>0.3196823337961455</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -7080,19 +7080,19 @@
         <v>12201</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6164</v>
+        <v>6279</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20319</v>
+        <v>20331</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2217966021438012</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1120567649189446</v>
+        <v>0.1141514369057581</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3693766301982098</v>
+        <v>0.3695869763261506</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -7101,19 +7101,19 @@
         <v>29541</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19443</v>
+        <v>20142</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40291</v>
+        <v>40171</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2183106248830827</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1436872390553531</v>
+        <v>0.1488492955602507</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2977575032006581</v>
+        <v>0.296866751808491</v>
       </c>
     </row>
     <row r="23">
@@ -7205,19 +7205,19 @@
         <v>9779</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5301</v>
+        <v>5159</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15705</v>
+        <v>16055</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3522146249135966</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.190936125517586</v>
+        <v>0.1858234729686338</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5656564942678474</v>
+        <v>0.5782591742833293</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -7226,19 +7226,19 @@
         <v>5161</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1901</v>
+        <v>1947</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8735</v>
+        <v>9288</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3961889536893884</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1459069641502686</v>
+        <v>0.1494730153942778</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.670508206018848</v>
+        <v>0.7129521798196682</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -7247,19 +7247,19 @@
         <v>14940</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8906</v>
+        <v>9310</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21179</v>
+        <v>21792</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.366258262621432</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2183260012296801</v>
+        <v>0.2282245793371123</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5192083131184436</v>
+        <v>0.5342477219884376</v>
       </c>
     </row>
     <row r="25">
@@ -7276,19 +7276,19 @@
         <v>13382</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8013</v>
+        <v>7956</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18823</v>
+        <v>18845</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4819736499311106</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2886191763438157</v>
+        <v>0.2865715353613746</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6779655903922746</v>
+        <v>0.6787387470817992</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -7297,19 +7297,19 @@
         <v>5835</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2223</v>
+        <v>2283</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10041</v>
+        <v>9857</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4478964348285971</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1706718490949861</v>
+        <v>0.1752182615211837</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7708039152020354</v>
+        <v>0.75667165216887</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -7318,19 +7318,19 @@
         <v>19216</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12573</v>
+        <v>12541</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25910</v>
+        <v>25669</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4710907535614648</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3082412228262846</v>
+        <v>0.3074333546173597</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6351972777769885</v>
+        <v>0.6292733439263098</v>
       </c>
     </row>
     <row r="26">
@@ -7347,19 +7347,19 @@
         <v>4604</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1711</v>
+        <v>1753</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9447</v>
+        <v>9777</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1658117251552928</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06160969859268273</v>
+        <v>0.06313659721965791</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3402607432286663</v>
+        <v>0.3521507977834736</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5900</v>
+        <v>5469</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1559146114820145</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4529148098971448</v>
+        <v>0.4198012359495676</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -7389,19 +7389,19 @@
         <v>6635</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2841</v>
+        <v>2894</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11966</v>
+        <v>12251</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1626509838171033</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06964411053096885</v>
+        <v>0.07093895589993779</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2933598511828574</v>
+        <v>0.3003381187953427</v>
       </c>
     </row>
     <row r="27">
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3148</v>
+        <v>3545</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06150918987810927</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.253463157889208</v>
+        <v>0.2854237903776141</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3436</v>
+        <v>3755</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04260095337276105</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1915534510857082</v>
+        <v>0.2093899091712587</v>
       </c>
     </row>
     <row r="29">
@@ -7556,19 +7556,19 @@
         <v>8319</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4921</v>
+        <v>4954</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10793</v>
+        <v>10779</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.669781851574059</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3961505381454895</v>
+        <v>0.3988584854741997</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8689654332898881</v>
+        <v>0.8677991533503763</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4104</v>
+        <v>5513</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2422556475315311</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7444003777293877</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -7598,19 +7598,19 @@
         <v>9655</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5493</v>
+        <v>5198</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13686</v>
+        <v>13665</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5383581310814105</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.306288080748412</v>
+        <v>0.2898280398658813</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7630796712536027</v>
+        <v>0.7619326907234488</v>
       </c>
     </row>
     <row r="30">
@@ -7627,19 +7627,19 @@
         <v>3338</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6712</v>
+        <v>6761</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2687089585478317</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06998366155672409</v>
+        <v>0.07005378009813054</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5403911785303126</v>
+        <v>0.544328501215085</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -7648,7 +7648,7 @@
         <v>4177</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1409</v>
+        <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>5513</v>
@@ -7657,7 +7657,7 @@
         <v>0.7577443524684688</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2555996222706123</v>
+        <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
         <v>1</v>
@@ -7669,19 +7669,19 @@
         <v>7515</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3569</v>
+        <v>3396</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11871</v>
+        <v>11757</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4190409155458285</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1990194234766016</v>
+        <v>0.1893480983967316</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6618752272175981</v>
+        <v>0.6555422134987239</v>
       </c>
     </row>
     <row r="31">
@@ -7773,19 +7773,19 @@
         <v>131182</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>109343</v>
+        <v>112724</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>150187</v>
+        <v>151505</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.262973519865515</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2191938148241854</v>
+        <v>0.2259719875164632</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3010712683413113</v>
+        <v>0.3037134067406382</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>120</v>
@@ -7794,19 +7794,19 @@
         <v>123712</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>106473</v>
+        <v>105949</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>141557</v>
+        <v>142971</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3113385587325899</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.267954135870157</v>
+        <v>0.2666353516332444</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.356248512328872</v>
+        <v>0.359806262175597</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>242</v>
@@ -7815,19 +7815,19 @@
         <v>254894</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>229026</v>
+        <v>230258</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>283538</v>
+        <v>284553</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2844175848678292</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.255553557273012</v>
+        <v>0.2569276754903057</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3163790141808084</v>
+        <v>0.3175121570117327</v>
       </c>
     </row>
     <row r="33">
@@ -7844,19 +7844,19 @@
         <v>272889</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>250237</v>
+        <v>249478</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>298171</v>
+        <v>294065</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5470457858524181</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5016364027995303</v>
+        <v>0.5001142926114276</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5977272614334412</v>
+        <v>0.5894961801977786</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>201</v>
@@ -7865,19 +7865,19 @@
         <v>207111</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>189114</v>
+        <v>187925</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>226997</v>
+        <v>227857</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5212250990859787</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4759333290163758</v>
+        <v>0.4729404667455104</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5712704036113873</v>
+        <v>0.5734342327107399</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>455</v>
@@ -7886,19 +7886,19 @@
         <v>480001</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>450388</v>
+        <v>448764</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>509006</v>
+        <v>510113</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5355974235974906</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5025543017725316</v>
+        <v>0.5007420700101816</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.567962305280749</v>
+        <v>0.5691975842274113</v>
       </c>
     </row>
     <row r="34">
@@ -7915,19 +7915,19 @@
         <v>94770</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>77159</v>
+        <v>77327</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>113403</v>
+        <v>116145</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1899806942820668</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1546755436849299</v>
+        <v>0.155013010339281</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2273322678171911</v>
+        <v>0.2328293353811144</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>63</v>
@@ -7936,19 +7936,19 @@
         <v>66532</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>52583</v>
+        <v>50743</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>82932</v>
+        <v>81956</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1674363421814314</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1323334025522288</v>
+        <v>0.1277028649224475</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2087098610260536</v>
+        <v>0.2062548359518638</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>151</v>
@@ -7957,19 +7957,19 @@
         <v>161302</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>138605</v>
+        <v>139601</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>184556</v>
+        <v>188890</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1799849915346802</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1546595605437011</v>
+        <v>0.155769895000955</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.205932880218383</v>
+        <v>0.2107679469270459</v>
       </c>
     </row>
     <row r="35">
